--- a/K.xlsx
+++ b/K.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E48D458-741B-4EBD-9A93-7BE71C8800F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA459C-CCF3-4788-9C68-BED81F8D8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FEFEB3BF-2FF6-4C36-B51A-519A116117A4}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{FEFEB3BF-2FF6-4C36-B51A-519A116117A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,14 +244,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -268,12 +266,25 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,36 +423,35 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -780,36 +790,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23DDC5E-F3F8-4135-A322-A7CEA1B99C63}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="26.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>81.52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3">
@@ -819,11 +831,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3">
@@ -831,11 +843,11 @@
         <v>28099.772318880001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
@@ -845,8 +857,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3">
@@ -857,20 +869,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3">
@@ -878,53 +890,53 @@
         <v>33259.772318880001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>0.62672811059907829</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>0.21013824884792626</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>8.6328725038402457E-2</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>7.6804915514592939E-2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -942,21 +954,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
@@ -982,8 +995,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3"/>
@@ -1003,8 +1016,8 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3"/>
@@ -1024,8 +1037,8 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="3"/>
@@ -1045,8 +1058,8 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3"/>
@@ -1066,8 +1079,8 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="3"/>
@@ -1087,8 +1100,8 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3"/>
@@ -1108,8 +1121,8 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="3"/>
@@ -1129,8 +1142,8 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="3"/>
@@ -1150,8 +1163,8 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="3"/>
@@ -1171,27 +1184,27 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20">
         <v>3351</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="20">
         <v>3255</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20">
         <v>3192</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="20">
         <v>3233</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1244,8 +1257,8 @@
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3"/>
@@ -1317,8 +1330,8 @@
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3">
@@ -1406,8 +1419,8 @@
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3"/>
@@ -1479,8 +1492,8 @@
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="3">
@@ -1568,8 +1581,8 @@
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
     </row>
-    <row r="17" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="3"/>
@@ -1641,8 +1654,8 @@
       <c r="BI17" s="3"/>
       <c r="BJ17" s="3"/>
     </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="3"/>
@@ -1714,8 +1727,8 @@
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
     </row>
-    <row r="19" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="3">
@@ -1803,8 +1816,8 @@
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3"/>
     </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="3"/>
@@ -1876,8 +1889,8 @@
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
     </row>
-    <row r="21" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="3"/>
@@ -1949,8 +1962,8 @@
       <c r="BI21" s="3"/>
       <c r="BJ21" s="3"/>
     </row>
-    <row r="22" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="3">
@@ -2038,8 +2051,8 @@
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
     </row>
-    <row r="23" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="3"/>
@@ -2109,8 +2122,8 @@
       <c r="BI23" s="3"/>
       <c r="BJ23" s="3"/>
     </row>
-    <row r="24" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="3"/>
@@ -2180,8 +2193,8 @@
       <c r="BI24" s="3"/>
       <c r="BJ24" s="3"/>
     </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="3">
@@ -2269,7 +2282,7 @@
       <c r="BI25" s="3"/>
       <c r="BJ25" s="3"/>
     </row>
-    <row r="26" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2331,39 +2344,39 @@
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
     </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2" t="e">
+      <c r="C27" s="21" t="e">
         <f t="shared" ref="C27:D27" si="10">+C25/C28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="21">
         <f t="shared" si="10"/>
         <v>1.0408163265306123</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="21">
         <f>+E25/E28</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="F27" s="2" t="e">
+      <c r="F27" s="21" t="e">
         <f t="shared" ref="F27:J27" si="11">+F25/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="2" t="e">
+      <c r="G27" s="21" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="21">
         <f t="shared" si="11"/>
         <v>1.0058479532163742</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="21">
         <f t="shared" si="11"/>
         <v>1.0699708454810495</v>
       </c>
-      <c r="J27" s="2" t="e">
+      <c r="J27" s="21" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -2420,8 +2433,8 @@
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3"/>
     </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3"/>
@@ -2493,7 +2506,7 @@
       <c r="BI28" s="3"/>
       <c r="BJ28" s="3"/>
     </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2555,27 +2568,27 @@
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
     </row>
-    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="22" t="e">
         <f>+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="22">
         <f>+H3/D3-1</f>
         <v>7.9027355623100259E-3</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="22">
         <f>+I3/E3-1</f>
         <v>1.1487303506650504E-2</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="22" t="e">
         <f>+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2632,27 +2645,27 @@
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
     </row>
-    <row r="31" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="22" t="e">
         <f t="shared" ref="G31:J39" si="12">+G4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="22">
         <f t="shared" si="12"/>
         <v>-4.3413173652694592E-2</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="22">
         <f t="shared" si="12"/>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2709,27 +2722,27 @@
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
     </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="7" t="e">
+      <c r="G32" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="22">
         <f t="shared" si="12"/>
         <v>2.1472392638036908E-2</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="22">
         <f t="shared" si="12"/>
         <v>-5.4711246200607855E-2</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2786,27 +2799,27 @@
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
     </row>
-    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="7" t="e">
+      <c r="G33" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="22">
         <f t="shared" si="12"/>
         <v>-0.2078651685393258</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="22">
         <f t="shared" si="12"/>
         <v>-0.10197869101978696</v>
       </c>
-      <c r="J33" s="7" t="e">
+      <c r="J33" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2863,27 +2876,27 @@
       <c r="BI33" s="3"/>
       <c r="BJ33" s="3"/>
     </row>
-    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="7" t="e">
+      <c r="G34" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="7" t="e">
+      <c r="H34" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J34" s="7" t="e">
+      <c r="J34" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2940,27 +2953,27 @@
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
     </row>
-    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="7" t="e">
+      <c r="G35" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="22">
         <f t="shared" si="12"/>
         <v>8.2846003898635612E-3</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="22">
         <f t="shared" si="12"/>
         <v>1.4215686274509753E-2</v>
       </c>
-      <c r="J35" s="7" t="e">
+      <c r="J35" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -3017,27 +3030,27 @@
       <c r="BI35" s="3"/>
       <c r="BJ35" s="3"/>
     </row>
-    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="7" t="e">
+      <c r="G36" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="22">
         <f t="shared" si="12"/>
         <v>-2.5459688826025451E-2</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="22">
         <f t="shared" si="12"/>
         <v>8.7719298245614308E-3</v>
       </c>
-      <c r="J36" s="7" t="e">
+      <c r="J36" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -3094,27 +3107,27 @@
       <c r="BI36" s="3"/>
       <c r="BJ36" s="3"/>
     </row>
-    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="7" t="e">
+      <c r="G37" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="22">
         <f t="shared" si="12"/>
         <v>-1.132075471698113E-2</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="22">
         <f t="shared" si="12"/>
         <v>-1.7793594306049876E-2</v>
       </c>
-      <c r="J37" s="7" t="e">
+      <c r="J37" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -3171,27 +3184,27 @@
       <c r="BI37" s="3"/>
       <c r="BJ37" s="3"/>
     </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="7" t="e">
+      <c r="G38" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="22">
         <f t="shared" si="12"/>
         <v>-0.47400611620795108</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="22">
         <f t="shared" si="12"/>
         <v>-0.20799999999999996</v>
       </c>
-      <c r="J38" s="7" t="e">
+      <c r="J38" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -3248,27 +3261,27 @@
       <c r="BI38" s="3"/>
       <c r="BJ38" s="3"/>
     </row>
-    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="7" t="e">
+      <c r="G39" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="22">
         <f t="shared" si="12"/>
         <v>-4.7448522829006246E-2</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="22">
         <f t="shared" si="12"/>
         <v>-6.7588325652842007E-3</v>
       </c>
-      <c r="J39" s="7" t="e">
+      <c r="J39" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -3325,39 +3338,39 @@
       <c r="BI39" s="3"/>
       <c r="BJ39" s="3"/>
     </row>
-    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="7" t="e">
-        <f t="shared" ref="C40:J40" si="13">+C14/C12</f>
+      <c r="C40" s="22" t="e">
+        <f t="shared" ref="C40:H40" si="13">+C14/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="22">
         <f t="shared" si="13"/>
         <v>0.3264697105341689</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="22">
         <f t="shared" si="13"/>
         <v>0.34101382488479265</v>
       </c>
-      <c r="F40" s="7" t="e">
+      <c r="F40" s="22" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="7" t="e">
+      <c r="G40" s="22" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="22">
         <f t="shared" si="13"/>
         <v>0.36372180451127817</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="22">
         <f>+I14/I12</f>
         <v>0.36374884008660685</v>
       </c>
-      <c r="J40" s="7" t="e">
+      <c r="J40" s="22" t="e">
         <f t="shared" ref="J40" si="14">+J14/J12</f>
         <v>#DIV/0!</v>
       </c>
@@ -3414,39 +3427,39 @@
       <c r="BI40" s="3"/>
       <c r="BJ40" s="3"/>
     </row>
-    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="7" t="e">
-        <f t="shared" ref="C41:J41" si="15">+C16/C12</f>
+      <c r="C41" s="22" t="e">
+        <f t="shared" ref="C41:H41" si="15">+C16/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="22">
         <f t="shared" si="15"/>
         <v>0.12444046553267682</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="22">
         <f t="shared" si="15"/>
         <v>0.12718894009216589</v>
       </c>
-      <c r="F41" s="7" t="e">
+      <c r="F41" s="22" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="7" t="e">
+      <c r="G41" s="22" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="22">
         <f t="shared" si="15"/>
         <v>0.15444862155388472</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="22">
         <f>+I16/I12</f>
         <v>0.14104546860501083</v>
       </c>
-      <c r="J41" s="7" t="e">
+      <c r="J41" s="22" t="e">
         <f t="shared" ref="J41" si="16">+J16/J12</f>
         <v>#DIV/0!</v>
       </c>
@@ -3503,39 +3516,39 @@
       <c r="BI41" s="3"/>
       <c r="BJ41" s="3"/>
     </row>
-    <row r="42" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="7" t="e">
-        <f t="shared" ref="C42:J42" si="17">+C20/C19</f>
+      <c r="C42" s="22" t="e">
+        <f t="shared" ref="C42:H42" si="17">+C20/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="22">
         <f t="shared" si="17"/>
         <v>0.20698924731182797</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="22">
         <f t="shared" si="17"/>
         <v>0.28158844765342961</v>
       </c>
-      <c r="F42" s="7" t="e">
+      <c r="F42" s="22" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="7" t="e">
+      <c r="G42" s="22" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="22">
         <f t="shared" si="17"/>
         <v>0.21896162528216703</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="22">
         <f>+I20/I19</f>
         <v>8.45771144278607E-2</v>
       </c>
-      <c r="J42" s="7" t="e">
+      <c r="J42" s="22" t="e">
         <f t="shared" ref="J42" si="18">+J20/J19</f>
         <v>#DIV/0!</v>
       </c>
@@ -3592,7 +3605,7 @@
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3"/>
     </row>
-    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3654,7 +3667,7 @@
       <c r="BI43" s="3"/>
       <c r="BJ43" s="3"/>
     </row>
-    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3716,7 +3729,7 @@
       <c r="BI44" s="3"/>
       <c r="BJ44" s="3"/>
     </row>
-    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3778,7 +3791,7 @@
       <c r="BI45" s="3"/>
       <c r="BJ45" s="3"/>
     </row>
-    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3840,7 +3853,7 @@
       <c r="BI46" s="3"/>
       <c r="BJ46" s="3"/>
     </row>
-    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3902,7 +3915,7 @@
       <c r="BI47" s="3"/>
       <c r="BJ47" s="3"/>
     </row>
-    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3964,7 +3977,7 @@
       <c r="BI48" s="3"/>
       <c r="BJ48" s="3"/>
     </row>
-    <row r="49" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4026,7 +4039,7 @@
       <c r="BI49" s="3"/>
       <c r="BJ49" s="3"/>
     </row>
-    <row r="50" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4088,7 +4101,7 @@
       <c r="BI50" s="3"/>
       <c r="BJ50" s="3"/>
     </row>
-    <row r="51" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4150,7 +4163,7 @@
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
     </row>
-    <row r="52" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4212,7 +4225,7 @@
       <c r="BI52" s="3"/>
       <c r="BJ52" s="3"/>
     </row>
-    <row r="53" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4274,7 +4287,7 @@
       <c r="BI53" s="3"/>
       <c r="BJ53" s="3"/>
     </row>
-    <row r="54" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4336,7 +4349,7 @@
       <c r="BI54" s="3"/>
       <c r="BJ54" s="3"/>
     </row>
-    <row r="55" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4398,7 +4411,7 @@
       <c r="BI55" s="3"/>
       <c r="BJ55" s="3"/>
     </row>
-    <row r="56" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4460,7 +4473,7 @@
       <c r="BI56" s="3"/>
       <c r="BJ56" s="3"/>
     </row>
-    <row r="57" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4522,7 +4535,7 @@
       <c r="BI57" s="3"/>
       <c r="BJ57" s="3"/>
     </row>
-    <row r="58" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4584,7 +4597,7 @@
       <c r="BI58" s="3"/>
       <c r="BJ58" s="3"/>
     </row>
-    <row r="59" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4646,7 +4659,7 @@
       <c r="BI59" s="3"/>
       <c r="BJ59" s="3"/>
     </row>
-    <row r="60" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4708,7 +4721,7 @@
       <c r="BI60" s="3"/>
       <c r="BJ60" s="3"/>
     </row>
-    <row r="61" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4770,7 +4783,7 @@
       <c r="BI61" s="3"/>
       <c r="BJ61" s="3"/>
     </row>
-    <row r="62" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4832,7 +4845,7 @@
       <c r="BI62" s="3"/>
       <c r="BJ62" s="3"/>
     </row>
-    <row r="63" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4894,7 +4907,7 @@
       <c r="BI63" s="3"/>
       <c r="BJ63" s="3"/>
     </row>
-    <row r="64" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4956,7 +4969,7 @@
       <c r="BI64" s="3"/>
       <c r="BJ64" s="3"/>
     </row>
-    <row r="65" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5018,7 +5031,7 @@
       <c r="BI65" s="3"/>
       <c r="BJ65" s="3"/>
     </row>
-    <row r="66" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5080,7 +5093,7 @@
       <c r="BI66" s="3"/>
       <c r="BJ66" s="3"/>
     </row>
-    <row r="67" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5142,7 +5155,7 @@
       <c r="BI67" s="3"/>
       <c r="BJ67" s="3"/>
     </row>
-    <row r="68" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5204,7 +5217,7 @@
       <c r="BI68" s="3"/>
       <c r="BJ68" s="3"/>
     </row>
-    <row r="69" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5266,7 +5279,7 @@
       <c r="BI69" s="3"/>
       <c r="BJ69" s="3"/>
     </row>
-    <row r="70" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5328,7 +5341,7 @@
       <c r="BI70" s="3"/>
       <c r="BJ70" s="3"/>
     </row>
-    <row r="71" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5390,7 +5403,7 @@
       <c r="BI71" s="3"/>
       <c r="BJ71" s="3"/>
     </row>
-    <row r="72" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5452,7 +5465,7 @@
       <c r="BI72" s="3"/>
       <c r="BJ72" s="3"/>
     </row>
-    <row r="73" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5514,7 +5527,7 @@
       <c r="BI73" s="3"/>
       <c r="BJ73" s="3"/>
     </row>
-    <row r="74" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5576,7 +5589,7 @@
       <c r="BI74" s="3"/>
       <c r="BJ74" s="3"/>
     </row>
-    <row r="75" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5638,7 +5651,7 @@
       <c r="BI75" s="3"/>
       <c r="BJ75" s="3"/>
     </row>
-    <row r="76" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5700,7 +5713,7 @@
       <c r="BI76" s="3"/>
       <c r="BJ76" s="3"/>
     </row>
-    <row r="77" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5762,7 +5775,7 @@
       <c r="BI77" s="3"/>
       <c r="BJ77" s="3"/>
     </row>
-    <row r="78" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5824,7 +5837,7 @@
       <c r="BI78" s="3"/>
       <c r="BJ78" s="3"/>
     </row>
-    <row r="79" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5886,7 +5899,7 @@
       <c r="BI79" s="3"/>
       <c r="BJ79" s="3"/>
     </row>
-    <row r="80" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5948,7 +5961,7 @@
       <c r="BI80" s="3"/>
       <c r="BJ80" s="3"/>
     </row>
-    <row r="81" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6010,7 +6023,7 @@
       <c r="BI81" s="3"/>
       <c r="BJ81" s="3"/>
     </row>
-    <row r="82" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6072,7 +6085,7 @@
       <c r="BI82" s="3"/>
       <c r="BJ82" s="3"/>
     </row>
-    <row r="83" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6134,7 +6147,7 @@
       <c r="BI83" s="3"/>
       <c r="BJ83" s="3"/>
     </row>
-    <row r="84" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6196,7 +6209,7 @@
       <c r="BI84" s="3"/>
       <c r="BJ84" s="3"/>
     </row>
-    <row r="85" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6258,7 +6271,7 @@
       <c r="BI85" s="3"/>
       <c r="BJ85" s="3"/>
     </row>
-    <row r="86" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6320,7 +6333,7 @@
       <c r="BI86" s="3"/>
       <c r="BJ86" s="3"/>
     </row>
-    <row r="87" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6382,7 +6395,7 @@
       <c r="BI87" s="3"/>
       <c r="BJ87" s="3"/>
     </row>
-    <row r="88" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6444,7 +6457,7 @@
       <c r="BI88" s="3"/>
       <c r="BJ88" s="3"/>
     </row>
-    <row r="89" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6506,7 +6519,7 @@
       <c r="BI89" s="3"/>
       <c r="BJ89" s="3"/>
     </row>
-    <row r="90" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6568,7 +6581,7 @@
       <c r="BI90" s="3"/>
       <c r="BJ90" s="3"/>
     </row>
-    <row r="91" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6630,7 +6643,7 @@
       <c r="BI91" s="3"/>
       <c r="BJ91" s="3"/>
     </row>
-    <row r="92" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6692,7 +6705,7 @@
       <c r="BI92" s="3"/>
       <c r="BJ92" s="3"/>
     </row>
-    <row r="93" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6754,7 +6767,7 @@
       <c r="BI93" s="3"/>
       <c r="BJ93" s="3"/>
     </row>
-    <row r="94" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6816,7 +6829,7 @@
       <c r="BI94" s="3"/>
       <c r="BJ94" s="3"/>
     </row>
-    <row r="95" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6878,7 +6891,7 @@
       <c r="BI95" s="3"/>
       <c r="BJ95" s="3"/>
     </row>
-    <row r="96" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6940,7 +6953,7 @@
       <c r="BI96" s="3"/>
       <c r="BJ96" s="3"/>
     </row>
-    <row r="97" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7002,7 +7015,7 @@
       <c r="BI97" s="3"/>
       <c r="BJ97" s="3"/>
     </row>
-    <row r="98" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7064,7 +7077,7 @@
       <c r="BI98" s="3"/>
       <c r="BJ98" s="3"/>
     </row>
-    <row r="99" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7126,7 +7139,7 @@
       <c r="BI99" s="3"/>
       <c r="BJ99" s="3"/>
     </row>
-    <row r="100" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7188,7 +7201,7 @@
       <c r="BI100" s="3"/>
       <c r="BJ100" s="3"/>
     </row>
-    <row r="101" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7250,7 +7263,7 @@
       <c r="BI101" s="3"/>
       <c r="BJ101" s="3"/>
     </row>
-    <row r="102" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7312,7 +7325,7 @@
       <c r="BI102" s="3"/>
       <c r="BJ102" s="3"/>
     </row>
-    <row r="103" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7374,7 +7387,7 @@
       <c r="BI103" s="3"/>
       <c r="BJ103" s="3"/>
     </row>
-    <row r="104" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7436,7 +7449,7 @@
       <c r="BI104" s="3"/>
       <c r="BJ104" s="3"/>
     </row>
-    <row r="105" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7498,7 +7511,7 @@
       <c r="BI105" s="3"/>
       <c r="BJ105" s="3"/>
     </row>
-    <row r="106" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7560,7 +7573,7 @@
       <c r="BI106" s="3"/>
       <c r="BJ106" s="3"/>
     </row>
-    <row r="107" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7622,7 +7635,7 @@
       <c r="BI107" s="3"/>
       <c r="BJ107" s="3"/>
     </row>
-    <row r="108" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7684,7 +7697,7 @@
       <c r="BI108" s="3"/>
       <c r="BJ108" s="3"/>
     </row>
-    <row r="109" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7746,7 +7759,7 @@
       <c r="BI109" s="3"/>
       <c r="BJ109" s="3"/>
     </row>
-    <row r="110" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7808,7 +7821,7 @@
       <c r="BI110" s="3"/>
       <c r="BJ110" s="3"/>
     </row>
-    <row r="111" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7870,7 +7883,7 @@
       <c r="BI111" s="3"/>
       <c r="BJ111" s="3"/>
     </row>
-    <row r="112" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7932,7 +7945,7 @@
       <c r="BI112" s="3"/>
       <c r="BJ112" s="3"/>
     </row>
-    <row r="113" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7994,7 +8007,7 @@
       <c r="BI113" s="3"/>
       <c r="BJ113" s="3"/>
     </row>
-    <row r="114" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8056,7 +8069,7 @@
       <c r="BI114" s="3"/>
       <c r="BJ114" s="3"/>
     </row>
-    <row r="115" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8118,7 +8131,7 @@
       <c r="BI115" s="3"/>
       <c r="BJ115" s="3"/>
     </row>
-    <row r="116" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8180,7 +8193,7 @@
       <c r="BI116" s="3"/>
       <c r="BJ116" s="3"/>
     </row>
-    <row r="117" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8242,7 +8255,7 @@
       <c r="BI117" s="3"/>
       <c r="BJ117" s="3"/>
     </row>
-    <row r="118" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8304,7 +8317,7 @@
       <c r="BI118" s="3"/>
       <c r="BJ118" s="3"/>
     </row>
-    <row r="119" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8366,7 +8379,7 @@
       <c r="BI119" s="3"/>
       <c r="BJ119" s="3"/>
     </row>
-    <row r="120" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8428,7 +8441,7 @@
       <c r="BI120" s="3"/>
       <c r="BJ120" s="3"/>
     </row>
-    <row r="121" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8490,7 +8503,7 @@
       <c r="BI121" s="3"/>
       <c r="BJ121" s="3"/>
     </row>
-    <row r="122" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8552,7 +8565,7 @@
       <c r="BI122" s="3"/>
       <c r="BJ122" s="3"/>
     </row>
-    <row r="123" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8614,7 +8627,7 @@
       <c r="BI123" s="3"/>
       <c r="BJ123" s="3"/>
     </row>
-    <row r="124" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8676,7 +8689,7 @@
       <c r="BI124" s="3"/>
       <c r="BJ124" s="3"/>
     </row>
-    <row r="125" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8738,7 +8751,7 @@
       <c r="BI125" s="3"/>
       <c r="BJ125" s="3"/>
     </row>
-    <row r="126" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8800,7 +8813,7 @@
       <c r="BI126" s="3"/>
       <c r="BJ126" s="3"/>
     </row>
-    <row r="127" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -8862,7 +8875,7 @@
       <c r="BI127" s="3"/>
       <c r="BJ127" s="3"/>
     </row>
-    <row r="128" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -8924,7 +8937,7 @@
       <c r="BI128" s="3"/>
       <c r="BJ128" s="3"/>
     </row>
-    <row r="129" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8986,7 +8999,7 @@
       <c r="BI129" s="3"/>
       <c r="BJ129" s="3"/>
     </row>
-    <row r="130" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9048,7 +9061,7 @@
       <c r="BI130" s="3"/>
       <c r="BJ130" s="3"/>
     </row>
-    <row r="131" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9110,7 +9123,7 @@
       <c r="BI131" s="3"/>
       <c r="BJ131" s="3"/>
     </row>
-    <row r="132" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9172,7 +9185,7 @@
       <c r="BI132" s="3"/>
       <c r="BJ132" s="3"/>
     </row>
-    <row r="133" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9234,7 +9247,7 @@
       <c r="BI133" s="3"/>
       <c r="BJ133" s="3"/>
     </row>
-    <row r="134" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9296,7 +9309,7 @@
       <c r="BI134" s="3"/>
       <c r="BJ134" s="3"/>
     </row>
-    <row r="135" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9358,7 +9371,7 @@
       <c r="BI135" s="3"/>
       <c r="BJ135" s="3"/>
     </row>
-    <row r="136" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9420,7 +9433,7 @@
       <c r="BI136" s="3"/>
       <c r="BJ136" s="3"/>
     </row>
-    <row r="137" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9482,7 +9495,7 @@
       <c r="BI137" s="3"/>
       <c r="BJ137" s="3"/>
     </row>
-    <row r="138" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9544,7 +9557,7 @@
       <c r="BI138" s="3"/>
       <c r="BJ138" s="3"/>
     </row>
-    <row r="139" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9606,7 +9619,7 @@
       <c r="BI139" s="3"/>
       <c r="BJ139" s="3"/>
     </row>
-    <row r="140" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9668,7 +9681,7 @@
       <c r="BI140" s="3"/>
       <c r="BJ140" s="3"/>
     </row>
-    <row r="141" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9730,7 +9743,7 @@
       <c r="BI141" s="3"/>
       <c r="BJ141" s="3"/>
     </row>
-    <row r="142" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9792,7 +9805,7 @@
       <c r="BI142" s="3"/>
       <c r="BJ142" s="3"/>
     </row>
-    <row r="143" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -9854,7 +9867,7 @@
       <c r="BI143" s="3"/>
       <c r="BJ143" s="3"/>
     </row>
-    <row r="144" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9916,7 +9929,7 @@
       <c r="BI144" s="3"/>
       <c r="BJ144" s="3"/>
     </row>
-    <row r="145" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9978,7 +9991,7 @@
       <c r="BI145" s="3"/>
       <c r="BJ145" s="3"/>
     </row>
-    <row r="146" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -10040,7 +10053,7 @@
       <c r="BI146" s="3"/>
       <c r="BJ146" s="3"/>
     </row>
-    <row r="147" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10102,7 +10115,7 @@
       <c r="BI147" s="3"/>
       <c r="BJ147" s="3"/>
     </row>
-    <row r="148" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -10164,7 +10177,7 @@
       <c r="BI148" s="3"/>
       <c r="BJ148" s="3"/>
     </row>
-    <row r="149" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -10226,7 +10239,7 @@
       <c r="BI149" s="3"/>
       <c r="BJ149" s="3"/>
     </row>
-    <row r="150" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10288,7 +10301,7 @@
       <c r="BI150" s="3"/>
       <c r="BJ150" s="3"/>
     </row>
-    <row r="151" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10350,7 +10363,7 @@
       <c r="BI151" s="3"/>
       <c r="BJ151" s="3"/>
     </row>
-    <row r="152" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10412,7 +10425,7 @@
       <c r="BI152" s="3"/>
       <c r="BJ152" s="3"/>
     </row>
-    <row r="153" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10474,7 +10487,7 @@
       <c r="BI153" s="3"/>
       <c r="BJ153" s="3"/>
     </row>
-    <row r="154" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10536,7 +10549,7 @@
       <c r="BI154" s="3"/>
       <c r="BJ154" s="3"/>
     </row>
-    <row r="155" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10598,7 +10611,7 @@
       <c r="BI155" s="3"/>
       <c r="BJ155" s="3"/>
     </row>
-    <row r="156" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -10660,7 +10673,7 @@
       <c r="BI156" s="3"/>
       <c r="BJ156" s="3"/>
     </row>
-    <row r="157" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10722,7 +10735,7 @@
       <c r="BI157" s="3"/>
       <c r="BJ157" s="3"/>
     </row>
-    <row r="158" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10784,7 +10797,7 @@
       <c r="BI158" s="3"/>
       <c r="BJ158" s="3"/>
     </row>
-    <row r="159" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10846,7 +10859,7 @@
       <c r="BI159" s="3"/>
       <c r="BJ159" s="3"/>
     </row>
-    <row r="160" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -10908,7 +10921,7 @@
       <c r="BI160" s="3"/>
       <c r="BJ160" s="3"/>
     </row>
-    <row r="161" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -10970,7 +10983,7 @@
       <c r="BI161" s="3"/>
       <c r="BJ161" s="3"/>
     </row>
-    <row r="162" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11032,7 +11045,7 @@
       <c r="BI162" s="3"/>
       <c r="BJ162" s="3"/>
     </row>
-    <row r="163" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -11094,7 +11107,7 @@
       <c r="BI163" s="3"/>
       <c r="BJ163" s="3"/>
     </row>
-    <row r="164" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -11156,7 +11169,7 @@
       <c r="BI164" s="3"/>
       <c r="BJ164" s="3"/>
     </row>
-    <row r="165" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11218,7 +11231,7 @@
       <c r="BI165" s="3"/>
       <c r="BJ165" s="3"/>
     </row>
-    <row r="166" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11280,7 +11293,7 @@
       <c r="BI166" s="3"/>
       <c r="BJ166" s="3"/>
     </row>
-    <row r="167" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -11342,7 +11355,7 @@
       <c r="BI167" s="3"/>
       <c r="BJ167" s="3"/>
     </row>
-    <row r="168" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -11404,7 +11417,7 @@
       <c r="BI168" s="3"/>
       <c r="BJ168" s="3"/>
     </row>
-    <row r="169" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -11466,7 +11479,7 @@
       <c r="BI169" s="3"/>
       <c r="BJ169" s="3"/>
     </row>
-    <row r="170" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -11528,7 +11541,7 @@
       <c r="BI170" s="3"/>
       <c r="BJ170" s="3"/>
     </row>
-    <row r="171" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -11590,7 +11603,7 @@
       <c r="BI171" s="3"/>
       <c r="BJ171" s="3"/>
     </row>
-    <row r="172" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -11652,7 +11665,7 @@
       <c r="BI172" s="3"/>
       <c r="BJ172" s="3"/>
     </row>
-    <row r="173" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -11714,7 +11727,7 @@
       <c r="BI173" s="3"/>
       <c r="BJ173" s="3"/>
     </row>
-    <row r="174" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -11776,7 +11789,7 @@
       <c r="BI174" s="3"/>
       <c r="BJ174" s="3"/>
     </row>
-    <row r="175" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11838,7 +11851,7 @@
       <c r="BI175" s="3"/>
       <c r="BJ175" s="3"/>
     </row>
-    <row r="176" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11900,7 +11913,7 @@
       <c r="BI176" s="3"/>
       <c r="BJ176" s="3"/>
     </row>
-    <row r="177" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11962,7 +11975,7 @@
       <c r="BI177" s="3"/>
       <c r="BJ177" s="3"/>
     </row>
-    <row r="178" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -12024,7 +12037,7 @@
       <c r="BI178" s="3"/>
       <c r="BJ178" s="3"/>
     </row>
-    <row r="179" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -12086,7 +12099,7 @@
       <c r="BI179" s="3"/>
       <c r="BJ179" s="3"/>
     </row>
-    <row r="180" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -12148,7 +12161,7 @@
       <c r="BI180" s="3"/>
       <c r="BJ180" s="3"/>
     </row>
-    <row r="181" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -12210,7 +12223,7 @@
       <c r="BI181" s="3"/>
       <c r="BJ181" s="3"/>
     </row>
-    <row r="182" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -12272,7 +12285,7 @@
       <c r="BI182" s="3"/>
       <c r="BJ182" s="3"/>
     </row>
-    <row r="183" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -12334,7 +12347,7 @@
       <c r="BI183" s="3"/>
       <c r="BJ183" s="3"/>
     </row>
-    <row r="184" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -12396,7 +12409,7 @@
       <c r="BI184" s="3"/>
       <c r="BJ184" s="3"/>
     </row>
-    <row r="185" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -12458,7 +12471,7 @@
       <c r="BI185" s="3"/>
       <c r="BJ185" s="3"/>
     </row>
-    <row r="186" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -12520,7 +12533,7 @@
       <c r="BI186" s="3"/>
       <c r="BJ186" s="3"/>
     </row>
-    <row r="187" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -12582,7 +12595,7 @@
       <c r="BI187" s="3"/>
       <c r="BJ187" s="3"/>
     </row>
-    <row r="188" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -12644,7 +12657,7 @@
       <c r="BI188" s="3"/>
       <c r="BJ188" s="3"/>
     </row>
-    <row r="189" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -12706,7 +12719,7 @@
       <c r="BI189" s="3"/>
       <c r="BJ189" s="3"/>
     </row>
-    <row r="190" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -12768,7 +12781,7 @@
       <c r="BI190" s="3"/>
       <c r="BJ190" s="3"/>
     </row>
-    <row r="191" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -12830,7 +12843,7 @@
       <c r="BI191" s="3"/>
       <c r="BJ191" s="3"/>
     </row>
-    <row r="192" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -12892,7 +12905,7 @@
       <c r="BI192" s="3"/>
       <c r="BJ192" s="3"/>
     </row>
-    <row r="193" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12954,7 +12967,7 @@
       <c r="BI193" s="3"/>
       <c r="BJ193" s="3"/>
     </row>
-    <row r="194" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -13016,7 +13029,7 @@
       <c r="BI194" s="3"/>
       <c r="BJ194" s="3"/>
     </row>
-    <row r="195" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -13078,7 +13091,7 @@
       <c r="BI195" s="3"/>
       <c r="BJ195" s="3"/>
     </row>
-    <row r="196" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13140,7 +13153,7 @@
       <c r="BI196" s="3"/>
       <c r="BJ196" s="3"/>
     </row>
-    <row r="197" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -13202,7 +13215,7 @@
       <c r="BI197" s="3"/>
       <c r="BJ197" s="3"/>
     </row>
-    <row r="198" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -13264,7 +13277,7 @@
       <c r="BI198" s="3"/>
       <c r="BJ198" s="3"/>
     </row>
-    <row r="199" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -13326,7 +13339,7 @@
       <c r="BI199" s="3"/>
       <c r="BJ199" s="3"/>
     </row>
-    <row r="200" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -13388,7 +13401,7 @@
       <c r="BI200" s="3"/>
       <c r="BJ200" s="3"/>
     </row>
-    <row r="201" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -13450,7 +13463,7 @@
       <c r="BI201" s="3"/>
       <c r="BJ201" s="3"/>
     </row>
-    <row r="202" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -13512,7 +13525,7 @@
       <c r="BI202" s="3"/>
       <c r="BJ202" s="3"/>
     </row>
-    <row r="203" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -13574,7 +13587,7 @@
       <c r="BI203" s="3"/>
       <c r="BJ203" s="3"/>
     </row>
-    <row r="204" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -13636,7 +13649,7 @@
       <c r="BI204" s="3"/>
       <c r="BJ204" s="3"/>
     </row>
-    <row r="205" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -13698,7 +13711,7 @@
       <c r="BI205" s="3"/>
       <c r="BJ205" s="3"/>
     </row>
-    <row r="206" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -13760,7 +13773,7 @@
       <c r="BI206" s="3"/>
       <c r="BJ206" s="3"/>
     </row>
-    <row r="207" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -13822,7 +13835,7 @@
       <c r="BI207" s="3"/>
       <c r="BJ207" s="3"/>
     </row>
-    <row r="208" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -13884,7 +13897,7 @@
       <c r="BI208" s="3"/>
       <c r="BJ208" s="3"/>
     </row>
-    <row r="209" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -13946,7 +13959,7 @@
       <c r="BI209" s="3"/>
       <c r="BJ209" s="3"/>
     </row>
-    <row r="210" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -14008,7 +14021,7 @@
       <c r="BI210" s="3"/>
       <c r="BJ210" s="3"/>
     </row>
-    <row r="211" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -14070,7 +14083,7 @@
       <c r="BI211" s="3"/>
       <c r="BJ211" s="3"/>
     </row>
-    <row r="212" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -14132,7 +14145,7 @@
       <c r="BI212" s="3"/>
       <c r="BJ212" s="3"/>
     </row>
-    <row r="213" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -14194,7 +14207,7 @@
       <c r="BI213" s="3"/>
       <c r="BJ213" s="3"/>
     </row>
-    <row r="214" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -14256,7 +14269,7 @@
       <c r="BI214" s="3"/>
       <c r="BJ214" s="3"/>
     </row>
-    <row r="215" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -14318,7 +14331,7 @@
       <c r="BI215" s="3"/>
       <c r="BJ215" s="3"/>
     </row>
-    <row r="216" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -14380,7 +14393,7 @@
       <c r="BI216" s="3"/>
       <c r="BJ216" s="3"/>
     </row>
-    <row r="217" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -14442,7 +14455,7 @@
       <c r="BI217" s="3"/>
       <c r="BJ217" s="3"/>
     </row>
-    <row r="218" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -14504,7 +14517,7 @@
       <c r="BI218" s="3"/>
       <c r="BJ218" s="3"/>
     </row>
-    <row r="219" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -14566,7 +14579,7 @@
       <c r="BI219" s="3"/>
       <c r="BJ219" s="3"/>
     </row>
-    <row r="220" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -14628,7 +14641,7 @@
       <c r="BI220" s="3"/>
       <c r="BJ220" s="3"/>
     </row>
-    <row r="221" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -14690,7 +14703,7 @@
       <c r="BI221" s="3"/>
       <c r="BJ221" s="3"/>
     </row>
-    <row r="222" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -14752,7 +14765,7 @@
       <c r="BI222" s="3"/>
       <c r="BJ222" s="3"/>
     </row>
-    <row r="223" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -14814,7 +14827,7 @@
       <c r="BI223" s="3"/>
       <c r="BJ223" s="3"/>
     </row>
-    <row r="224" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -14876,7 +14889,7 @@
       <c r="BI224" s="3"/>
       <c r="BJ224" s="3"/>
     </row>
-    <row r="225" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -14938,7 +14951,7 @@
       <c r="BI225" s="3"/>
       <c r="BJ225" s="3"/>
     </row>
-    <row r="226" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -15000,7 +15013,7 @@
       <c r="BI226" s="3"/>
       <c r="BJ226" s="3"/>
     </row>
-    <row r="227" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -15062,7 +15075,7 @@
       <c r="BI227" s="3"/>
       <c r="BJ227" s="3"/>
     </row>
-    <row r="228" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -15124,7 +15137,7 @@
       <c r="BI228" s="3"/>
       <c r="BJ228" s="3"/>
     </row>
-    <row r="229" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -15186,7 +15199,7 @@
       <c r="BI229" s="3"/>
       <c r="BJ229" s="3"/>
     </row>
-    <row r="230" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -15248,7 +15261,7 @@
       <c r="BI230" s="3"/>
       <c r="BJ230" s="3"/>
     </row>
-    <row r="231" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -15310,7 +15323,7 @@
       <c r="BI231" s="3"/>
       <c r="BJ231" s="3"/>
     </row>
-    <row r="232" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -15372,7 +15385,7 @@
       <c r="BI232" s="3"/>
       <c r="BJ232" s="3"/>
     </row>
-    <row r="233" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -15434,7 +15447,7 @@
       <c r="BI233" s="3"/>
       <c r="BJ233" s="3"/>
     </row>
-    <row r="234" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -15496,7 +15509,7 @@
       <c r="BI234" s="3"/>
       <c r="BJ234" s="3"/>
     </row>
-    <row r="235" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -15558,7 +15571,7 @@
       <c r="BI235" s="3"/>
       <c r="BJ235" s="3"/>
     </row>
-    <row r="236" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -15620,7 +15633,7 @@
       <c r="BI236" s="3"/>
       <c r="BJ236" s="3"/>
     </row>
-    <row r="237" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -15682,7 +15695,7 @@
       <c r="BI237" s="3"/>
       <c r="BJ237" s="3"/>
     </row>
-    <row r="238" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -15744,7 +15757,7 @@
       <c r="BI238" s="3"/>
       <c r="BJ238" s="3"/>
     </row>
-    <row r="239" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -15806,7 +15819,7 @@
       <c r="BI239" s="3"/>
       <c r="BJ239" s="3"/>
     </row>
-    <row r="240" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -15868,7 +15881,7 @@
       <c r="BI240" s="3"/>
       <c r="BJ240" s="3"/>
     </row>
-    <row r="241" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -15930,7 +15943,7 @@
       <c r="BI241" s="3"/>
       <c r="BJ241" s="3"/>
     </row>
-    <row r="242" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -15992,7 +16005,7 @@
       <c r="BI242" s="3"/>
       <c r="BJ242" s="3"/>
     </row>
-    <row r="243" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -16054,7 +16067,7 @@
       <c r="BI243" s="3"/>
       <c r="BJ243" s="3"/>
     </row>
-    <row r="244" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -16116,7 +16129,7 @@
       <c r="BI244" s="3"/>
       <c r="BJ244" s="3"/>
     </row>
-    <row r="245" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -16178,7 +16191,7 @@
       <c r="BI245" s="3"/>
       <c r="BJ245" s="3"/>
     </row>
-    <row r="246" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -16240,7 +16253,7 @@
       <c r="BI246" s="3"/>
       <c r="BJ246" s="3"/>
     </row>
-    <row r="247" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -16302,7 +16315,7 @@
       <c r="BI247" s="3"/>
       <c r="BJ247" s="3"/>
     </row>
-    <row r="248" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -16364,7 +16377,7 @@
       <c r="BI248" s="3"/>
       <c r="BJ248" s="3"/>
     </row>
-    <row r="249" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -16426,7 +16439,7 @@
       <c r="BI249" s="3"/>
       <c r="BJ249" s="3"/>
     </row>
-    <row r="250" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -16488,7 +16501,7 @@
       <c r="BI250" s="3"/>
       <c r="BJ250" s="3"/>
     </row>
-    <row r="251" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -16550,7 +16563,7 @@
       <c r="BI251" s="3"/>
       <c r="BJ251" s="3"/>
     </row>
-    <row r="252" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -16612,7 +16625,7 @@
       <c r="BI252" s="3"/>
       <c r="BJ252" s="3"/>
     </row>
-    <row r="253" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -16674,7 +16687,7 @@
       <c r="BI253" s="3"/>
       <c r="BJ253" s="3"/>
     </row>
-    <row r="254" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -16736,7 +16749,7 @@
       <c r="BI254" s="3"/>
       <c r="BJ254" s="3"/>
     </row>
-    <row r="255" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -16798,7 +16811,7 @@
       <c r="BI255" s="3"/>
       <c r="BJ255" s="3"/>
     </row>
-    <row r="256" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -16860,7 +16873,7 @@
       <c r="BI256" s="3"/>
       <c r="BJ256" s="3"/>
     </row>
-    <row r="257" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -16922,7 +16935,7 @@
       <c r="BI257" s="3"/>
       <c r="BJ257" s="3"/>
     </row>
-    <row r="258" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -16984,7 +16997,7 @@
       <c r="BI258" s="3"/>
       <c r="BJ258" s="3"/>
     </row>
-    <row r="259" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -17046,7 +17059,7 @@
       <c r="BI259" s="3"/>
       <c r="BJ259" s="3"/>
     </row>
-    <row r="260" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -17108,7 +17121,7 @@
       <c r="BI260" s="3"/>
       <c r="BJ260" s="3"/>
     </row>
-    <row r="261" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -17170,7 +17183,7 @@
       <c r="BI261" s="3"/>
       <c r="BJ261" s="3"/>
     </row>
-    <row r="262" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -17232,7 +17245,7 @@
       <c r="BI262" s="3"/>
       <c r="BJ262" s="3"/>
     </row>
-    <row r="263" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -17294,7 +17307,7 @@
       <c r="BI263" s="3"/>
       <c r="BJ263" s="3"/>
     </row>
-    <row r="264" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -17356,7 +17369,7 @@
       <c r="BI264" s="3"/>
       <c r="BJ264" s="3"/>
     </row>
-    <row r="265" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -17418,7 +17431,7 @@
       <c r="BI265" s="3"/>
       <c r="BJ265" s="3"/>
     </row>
-    <row r="266" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -17480,7 +17493,7 @@
       <c r="BI266" s="3"/>
       <c r="BJ266" s="3"/>
     </row>
-    <row r="267" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -17542,7 +17555,7 @@
       <c r="BI267" s="3"/>
       <c r="BJ267" s="3"/>
     </row>
-    <row r="268" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -17604,7 +17617,7 @@
       <c r="BI268" s="3"/>
       <c r="BJ268" s="3"/>
     </row>
-    <row r="269" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -17666,7 +17679,7 @@
       <c r="BI269" s="3"/>
       <c r="BJ269" s="3"/>
     </row>
-    <row r="270" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -17728,7 +17741,7 @@
       <c r="BI270" s="3"/>
       <c r="BJ270" s="3"/>
     </row>
-    <row r="271" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
